--- a/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/12.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/12.xlsx
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DJ17" sqref="CZ17:DJ19"/>
+    <sheetView tabSelected="1" topLeftCell="AX7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CV23" sqref="CV23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4374,99 +4374,37 @@
       <c r="CE17" s="64">
         <v>1</v>
       </c>
-      <c r="CF17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CG17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CH17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CI17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CJ17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CK17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CL17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CM17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CN17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CP17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CW17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CX17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CZ17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DB17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DD17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DF17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DG17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DH17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DJ17" s="63">
-        <v>1</v>
-      </c>
+      <c r="CF17" s="64"/>
+      <c r="CG17" s="64"/>
+      <c r="CH17" s="64"/>
+      <c r="CI17" s="64"/>
+      <c r="CJ17" s="64"/>
+      <c r="CK17" s="64"/>
+      <c r="CL17" s="64"/>
+      <c r="CM17" s="64"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
+      <c r="CZ17" s="1"/>
+      <c r="DA17" s="1"/>
+      <c r="DB17" s="1"/>
+      <c r="DC17" s="1"/>
+      <c r="DD17" s="1"/>
+      <c r="DE17" s="1"/>
+      <c r="DF17" s="1"/>
+      <c r="DG17" s="1"/>
+      <c r="DH17" s="1"/>
+      <c r="DI17" s="1"/>
+      <c r="DJ17" s="63"/>
       <c r="DK17" s="1"/>
       <c r="DL17" s="1"/>
       <c r="DM17" s="1"/>
@@ -4675,9 +4613,7 @@
       <c r="DG18" s="1"/>
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
-      <c r="DJ18" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ18" s="63"/>
       <c r="DK18" s="1"/>
       <c r="DL18" s="1"/>
       <c r="DM18" s="1"/>
@@ -4886,9 +4822,7 @@
       <c r="DG19" s="1"/>
       <c r="DH19" s="1"/>
       <c r="DI19" s="63"/>
-      <c r="DJ19" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ19" s="63"/>
       <c r="DK19" s="1"/>
       <c r="DL19" s="1"/>
       <c r="DM19" s="1"/>
@@ -5097,9 +5031,7 @@
       <c r="DG20" s="1"/>
       <c r="DH20" s="1"/>
       <c r="DI20" s="63"/>
-      <c r="DJ20" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ20" s="63"/>
       <c r="DK20" s="1"/>
       <c r="DL20" s="1"/>
       <c r="DM20" s="1"/>
@@ -5308,9 +5240,7 @@
       <c r="DG21" s="1"/>
       <c r="DH21" s="1"/>
       <c r="DI21" s="63"/>
-      <c r="DJ21" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ21" s="63"/>
       <c r="DK21" s="1"/>
       <c r="DL21" s="1"/>
       <c r="DM21" s="1"/>
@@ -5519,9 +5449,7 @@
       <c r="DG22" s="1"/>
       <c r="DH22" s="1"/>
       <c r="DI22" s="63"/>
-      <c r="DJ22" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ22" s="63"/>
       <c r="DK22" s="1"/>
       <c r="DL22" s="1"/>
       <c r="DM22" s="1"/>
@@ -5754,45 +5682,19 @@
       <c r="DQ23" s="86">
         <v>1</v>
       </c>
-      <c r="DR23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DS23" s="81">
-        <v>1</v>
-      </c>
-      <c r="DT23" s="62">
-        <v>1</v>
-      </c>
-      <c r="DU23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DV23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DW23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DX23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DY23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DZ23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EA23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EB23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EC23" s="63">
-        <v>1</v>
-      </c>
-      <c r="ED23" s="63">
-        <v>1</v>
-      </c>
+      <c r="DR23" s="7"/>
+      <c r="DS23" s="81"/>
+      <c r="DT23" s="62"/>
+      <c r="DU23" s="63"/>
+      <c r="DV23" s="63"/>
+      <c r="DW23" s="63"/>
+      <c r="DX23" s="63"/>
+      <c r="DY23" s="63"/>
+      <c r="DZ23" s="63"/>
+      <c r="EA23" s="63"/>
+      <c r="EB23" s="63"/>
+      <c r="EC23" s="63"/>
+      <c r="ED23" s="63"/>
       <c r="EE23" s="1"/>
       <c r="EF23" s="1"/>
       <c r="EG23" s="1"/>
@@ -5948,9 +5850,7 @@
       <c r="CB24" s="1"/>
       <c r="CC24" s="1"/>
       <c r="CD24" s="1"/>
-      <c r="CE24" s="63">
-        <v>1</v>
-      </c>
+      <c r="CE24" s="63"/>
       <c r="CF24" s="1"/>
       <c r="CG24" s="1"/>
       <c r="CH24" s="1"/>
@@ -6157,9 +6057,7 @@
       <c r="CB25" s="1"/>
       <c r="CC25" s="1"/>
       <c r="CD25" s="1"/>
-      <c r="CE25" s="63">
-        <v>1</v>
-      </c>
+      <c r="CE25" s="63"/>
       <c r="CF25" s="1"/>
       <c r="CG25" s="1"/>
       <c r="CH25" s="1"/>
@@ -6366,9 +6264,7 @@
       <c r="CB26" s="1"/>
       <c r="CC26" s="1"/>
       <c r="CD26" s="1"/>
-      <c r="CE26" s="63">
-        <v>1</v>
-      </c>
+      <c r="CE26" s="63"/>
       <c r="CF26" s="1"/>
       <c r="CG26" s="1"/>
       <c r="CH26" s="1"/>
@@ -6575,9 +6471,7 @@
       <c r="CB27" s="1"/>
       <c r="CC27" s="1"/>
       <c r="CD27" s="1"/>
-      <c r="CE27" s="63">
-        <v>1</v>
-      </c>
+      <c r="CE27" s="63"/>
       <c r="CF27" s="1"/>
       <c r="CG27" s="1"/>
       <c r="CH27" s="1"/>
@@ -6784,9 +6678,7 @@
       <c r="CB28" s="1"/>
       <c r="CC28" s="1"/>
       <c r="CD28" s="15"/>
-      <c r="CE28" s="65">
-        <v>1</v>
-      </c>
+      <c r="CE28" s="65"/>
       <c r="CF28" s="15"/>
       <c r="CG28" s="15"/>
       <c r="CH28" s="1"/>
@@ -6993,9 +6885,7 @@
       <c r="CB29" s="1"/>
       <c r="CC29" s="13"/>
       <c r="CD29" s="17"/>
-      <c r="CE29" s="75">
-        <v>1</v>
-      </c>
+      <c r="CE29" s="75"/>
       <c r="CF29" s="18"/>
       <c r="CG29" s="20"/>
       <c r="CH29" s="14"/>
@@ -7202,9 +7092,7 @@
       <c r="CB30" s="1"/>
       <c r="CC30" s="13"/>
       <c r="CD30" s="21"/>
-      <c r="CE30" s="66">
-        <v>1</v>
-      </c>
+      <c r="CE30" s="66"/>
       <c r="CF30" s="6"/>
       <c r="CG30" s="22"/>
       <c r="CH30" s="14"/>
@@ -7411,9 +7299,7 @@
       <c r="CB31" s="8"/>
       <c r="CC31" s="29"/>
       <c r="CD31" s="32"/>
-      <c r="CE31" s="7">
-        <v>1</v>
-      </c>
+      <c r="CE31" s="7"/>
       <c r="CF31" s="7"/>
       <c r="CG31" s="33"/>
       <c r="CH31" s="35"/>
